--- a/Map.xlsx
+++ b/Map.xlsx
@@ -4,20 +4,126 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18000" windowHeight="8190" activeTab="4"/>
+    <workbookView windowWidth="18000" windowHeight="8190" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="场景" sheetId="1" r:id="rId1"/>
-    <sheet name="描述" sheetId="2" r:id="rId2"/>
-    <sheet name="房间" sheetId="3" r:id="rId3"/>
-    <sheet name="房间描述" sheetId="6" r:id="rId4"/>
-    <sheet name="房间功能ID" sheetId="5" r:id="rId5"/>
+    <sheet name="场景物品" sheetId="11" r:id="rId2"/>
+    <sheet name="场景装备" sheetId="12" r:id="rId3"/>
+    <sheet name="场景条件ID" sheetId="7" r:id="rId4"/>
+    <sheet name="描述" sheetId="2" r:id="rId5"/>
+    <sheet name="房间" sheetId="3" r:id="rId6"/>
+    <sheet name="房间物品" sheetId="10" r:id="rId7"/>
+    <sheet name="房间装备" sheetId="13" r:id="rId8"/>
+    <sheet name="房间描述" sheetId="6" r:id="rId9"/>
+    <sheet name="房间功能ID" sheetId="5" r:id="rId10"/>
+    <sheet name="场景npc" sheetId="8" r:id="rId11"/>
+    <sheet name="房间npc" sheetId="9" r:id="rId12"/>
   </sheets>
   <calcPr calcId="144525" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Robin</author>
+  </authors>
+  <commentList>
+    <comment ref="J20" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Robin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+TEST
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Robin</author>
+  </authors>
+  <commentList>
+    <comment ref="J20" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Robin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+TEST
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Robin</author>
+  </authors>
+  <commentList>
+    <comment ref="J20" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Robin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+TEST
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments12.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Robin</author>
@@ -182,8 +288,140 @@
 </comments>
 </file>
 
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Robin</author>
+  </authors>
+  <commentList>
+    <comment ref="J20" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Robin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+TEST
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Robin</author>
+  </authors>
+  <commentList>
+    <comment ref="J20" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Robin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+TEST
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Robin</author>
+  </authors>
+  <commentList>
+    <comment ref="J20" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Robin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+TEST
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Robin</author>
+  </authors>
+  <commentList>
+    <comment ref="J20" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Robin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+TEST
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="55">
   <si>
     <t>0，0</t>
   </si>
@@ -212,12 +450,21 @@
     <t>1,4</t>
   </si>
   <si>
+    <t>赌场后院</t>
+  </si>
+  <si>
     <t>1,5</t>
   </si>
   <si>
+    <t>澳门皇家赌场</t>
+  </si>
+  <si>
     <t>1,6</t>
   </si>
   <si>
+    <t>神秘的大门</t>
+  </si>
+  <si>
     <t>1,7</t>
   </si>
   <si>
@@ -245,12 +492,27 @@
     <t>1,10</t>
   </si>
   <si>
+    <t>四合院大门</t>
+  </si>
+  <si>
     <t>1,11</t>
   </si>
   <si>
+    <t>四合院西厢房</t>
+  </si>
+  <si>
+    <t>四合院内</t>
+  </si>
+  <si>
+    <t>四合院东厢房</t>
+  </si>
+  <si>
     <t>1,12</t>
   </si>
   <si>
+    <t>四合院后院</t>
+  </si>
+  <si>
     <t>1,13</t>
   </si>
   <si>
@@ -269,22 +531,61 @@
     <t>1,18</t>
   </si>
   <si>
+    <t>饭团,饭团,饭团，饭团,饭团，饭团</t>
+  </si>
+  <si>
+    <t>饭团</t>
+  </si>
+  <si>
+    <t>场景进入的条件ID</t>
+  </si>
+  <si>
+    <t>这有家超市</t>
+  </si>
+  <si>
+    <t>有钱就来</t>
+  </si>
+  <si>
     <t>这里应该是中心的描述</t>
   </si>
   <si>
+    <t>“老千”溢价超市</t>
+  </si>
+  <si>
+    <t>赌场内部</t>
+  </si>
+  <si>
     <t>厕所</t>
   </si>
   <si>
     <t>描述包含功能介绍</t>
   </si>
   <si>
+    <t>豪华的超市。所有东西都很贵。(buy1购买商品)</t>
+  </si>
+  <si>
+    <t>豪华的设施(dubuo)</t>
+  </si>
+  <si>
     <t>厕所的描述，输入1可以使用。</t>
   </si>
   <si>
     <t>id用逗号（英文）隔开</t>
   </si>
   <si>
-    <t>1,use</t>
+    <t>buy1</t>
+  </si>
+  <si>
+    <t>dubuo</t>
+  </si>
+  <si>
+    <t>1,tao,dubuo</t>
+  </si>
+  <si>
+    <t>蒙面人</t>
+  </si>
+  <si>
+    <t>npc模板1,npc模板2</t>
   </si>
 </sst>
 </file>
@@ -450,12 +751,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -911,12 +1212,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1240,7 +1544,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:L20"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8421052631579" defaultRowHeight="14.1"/>
@@ -1326,6 +1630,13 @@
       <c r="B5" t="s">
         <v>8</v>
       </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
       <c r="L5" t="s">
         <v>3</v>
       </c>
@@ -1335,8 +1646,15 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
       <c r="L6" t="s">
         <v>3</v>
       </c>
@@ -1346,8 +1664,15 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
       <c r="L7" t="s">
         <v>3</v>
       </c>
@@ -1357,11 +1682,15 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" t="s">
-        <v>12</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
       <c r="L8" t="s">
         <v>3</v>
       </c>
@@ -1371,17 +1700,19 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" t="s">
         <v>16</v>
       </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="2"/>
       <c r="L9" t="s">
         <v>3</v>
       </c>
@@ -1391,11 +1722,15 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" t="s">
-        <v>18</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
       <c r="L10" t="s">
         <v>3</v>
       </c>
@@ -1405,8 +1740,15 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
       <c r="L11" t="s">
         <v>3</v>
       </c>
@@ -1416,8 +1758,19 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="2"/>
       <c r="L12" t="s">
         <v>3</v>
       </c>
@@ -1427,8 +1780,15 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
       <c r="L13" t="s">
         <v>3</v>
       </c>
@@ -1438,7 +1798,7 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="L14" t="s">
         <v>3</v>
@@ -1449,7 +1809,7 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="L15" t="s">
         <v>3</v>
@@ -1460,7 +1820,7 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="L16" t="s">
         <v>3</v>
@@ -1471,7 +1831,7 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="L17" t="s">
         <v>3</v>
@@ -1482,7 +1842,7 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="L18" t="s">
         <v>3</v>
@@ -1493,7 +1853,969 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>35</v>
+      </c>
+      <c r="L19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20" t="s">
+        <v>3</v>
+      </c>
+      <c r="I20" t="s">
+        <v>3</v>
+      </c>
+      <c r="J20" t="s">
+        <v>3</v>
+      </c>
+      <c r="K20" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8421052631579" defaultRowHeight="14.1"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>50</v>
+      </c>
+      <c r="L5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>51</v>
+      </c>
+      <c r="L6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>52</v>
+      </c>
+      <c r="L9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="L13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="L14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="L15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="L16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="L17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="L18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="L19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20" t="s">
+        <v>3</v>
+      </c>
+      <c r="I20" t="s">
+        <v>3</v>
+      </c>
+      <c r="J20" t="s">
+        <v>3</v>
+      </c>
+      <c r="K20" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A3:L20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8421052631579" defaultRowHeight="14.1"/>
+  <sheetData>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="L5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="L6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="L7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="L8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="L9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="L10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="L11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="L12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="L13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="L14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="L15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="L16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="L17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="L18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="L19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20" t="s">
+        <v>3</v>
+      </c>
+      <c r="I20" t="s">
+        <v>3</v>
+      </c>
+      <c r="J20" t="s">
+        <v>3</v>
+      </c>
+      <c r="K20" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A3:L20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8421052631579" defaultRowHeight="14.1"/>
+  <sheetData>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="L5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="L6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="L7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="L8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="L9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="L10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="L11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="L12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="L13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="L14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="L15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="L16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="L17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="L18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
       </c>
       <c r="L19" t="s">
         <v>3</v>
@@ -1550,18 +2872,20 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8421052631579" defaultRowHeight="14.1"/>
+  <cols>
+    <col min="1" max="1" width="8.8421052631579" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1"/>
+    <row r="2" spans="2:3">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -1611,10 +2935,18 @@
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4"/>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
       <c r="L4" t="s">
         <v>3</v>
       </c>
@@ -1623,7 +2955,14 @@
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5"/>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
       <c r="L5" t="s">
         <v>3</v>
       </c>
@@ -1632,7 +2971,14 @@
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6"/>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
       <c r="L6" t="s">
         <v>3</v>
       </c>
@@ -1641,7 +2987,14 @@
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B7"/>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
       <c r="L7" t="s">
         <v>3</v>
       </c>
@@ -1650,10 +3003,14 @@
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B8"/>
-      <c r="E8" t="s">
-        <v>12</v>
-      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
       <c r="L8" t="s">
         <v>3</v>
       </c>
@@ -1662,16 +3019,16 @@
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B9"/>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="B9" t="s">
         <v>16</v>
       </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
       <c r="L9" t="s">
         <v>3</v>
       </c>
@@ -1680,10 +3037,14 @@
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B10"/>
-      <c r="E10" t="s">
-        <v>18</v>
-      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
       <c r="L10" t="s">
         <v>3</v>
       </c>
@@ -1692,7 +3053,14 @@
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B11"/>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
       <c r="L11" t="s">
         <v>3</v>
       </c>
@@ -1701,7 +3069,14 @@
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B12"/>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
       <c r="L12" t="s">
         <v>3</v>
       </c>
@@ -1710,7 +3085,14 @@
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B13"/>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
       <c r="L13" t="s">
         <v>3</v>
       </c>
@@ -1719,7 +3101,9 @@
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B14"/>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
       <c r="L14" t="s">
         <v>3</v>
       </c>
@@ -1728,7 +3112,9 @@
       <c r="A15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B15"/>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
       <c r="L15" t="s">
         <v>3</v>
       </c>
@@ -1737,7 +3123,9 @@
       <c r="A16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B16"/>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
       <c r="L16" t="s">
         <v>3</v>
       </c>
@@ -1746,7 +3134,9 @@
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B17"/>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
       <c r="L17" t="s">
         <v>3</v>
       </c>
@@ -1755,7 +3145,9 @@
       <c r="A18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B18"/>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
       <c r="L18" t="s">
         <v>3</v>
       </c>
@@ -1764,7 +3156,9 @@
       <c r="A19" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B19"/>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
       <c r="L19" t="s">
         <v>3</v>
       </c>
@@ -1817,14 +3211,30 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:L20"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8421052631579" defaultRowHeight="14.1"/>
+  <cols>
+    <col min="1" max="1" width="8.8421052631579" style="1"/>
+  </cols>
   <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>3</v>
@@ -1890,6 +3300,13 @@
       <c r="B5" t="s">
         <v>8</v>
       </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
       <c r="L5" t="s">
         <v>3</v>
       </c>
@@ -1899,8 +3316,15 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
       <c r="L6" t="s">
         <v>3</v>
       </c>
@@ -1910,8 +3334,15 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
       <c r="L7" t="s">
         <v>3</v>
       </c>
@@ -1921,8 +3352,15 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
       <c r="L8" t="s">
         <v>3</v>
       </c>
@@ -1932,17 +3370,19 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" t="s">
         <v>16</v>
       </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="2"/>
       <c r="L9" t="s">
         <v>3</v>
       </c>
@@ -1952,11 +3392,15 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" t="s">
-        <v>18</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
       <c r="L10" t="s">
         <v>3</v>
       </c>
@@ -1966,8 +3410,15 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
       <c r="L11" t="s">
         <v>3</v>
       </c>
@@ -1977,8 +3428,19 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="2"/>
       <c r="L12" t="s">
         <v>3</v>
       </c>
@@ -1988,8 +3450,15 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
       <c r="L13" t="s">
         <v>3</v>
       </c>
@@ -1999,7 +3468,7 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="L14" t="s">
         <v>3</v>
@@ -2010,7 +3479,7 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="L15" t="s">
         <v>3</v>
@@ -2021,7 +3490,7 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="L16" t="s">
         <v>3</v>
@@ -2032,7 +3501,7 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="L17" t="s">
         <v>3</v>
@@ -2043,7 +3512,7 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="L18" t="s">
         <v>3</v>
@@ -2054,7 +3523,7 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="L19" t="s">
         <v>3</v>
@@ -2111,14 +3580,14 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8421052631579" defaultRowHeight="14.1"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2186,6 +3655,9 @@
       <c r="B5" t="s">
         <v>8</v>
       </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
       <c r="L5" t="s">
         <v>3</v>
       </c>
@@ -2195,7 +3667,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2</v>
       </c>
       <c r="L6" t="s">
         <v>3</v>
@@ -2206,7 +3681,10 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
       </c>
       <c r="L7" t="s">
         <v>3</v>
@@ -2217,10 +3695,10 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
       </c>
       <c r="L8" t="s">
         <v>3</v>
@@ -2231,16 +3709,16 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" t="s">
-        <v>31</v>
+        <v>17</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="L9" t="s">
         <v>3</v>
@@ -2251,10 +3729,10 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L10" t="s">
         <v>3</v>
@@ -2265,7 +3743,10 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
       </c>
       <c r="L11" t="s">
         <v>3</v>
@@ -2276,7 +3757,7 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="L12" t="s">
         <v>3</v>
@@ -2287,7 +3768,7 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="L13" t="s">
         <v>3</v>
@@ -2298,7 +3779,7 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="L14" t="s">
         <v>3</v>
@@ -2309,7 +3790,7 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="L15" t="s">
         <v>3</v>
@@ -2320,7 +3801,7 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="L16" t="s">
         <v>3</v>
@@ -2331,7 +3812,7 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="L17" t="s">
         <v>3</v>
@@ -2342,7 +3823,7 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="L18" t="s">
         <v>3</v>
@@ -2353,7 +3834,7 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="L19" t="s">
         <v>3</v>
@@ -2409,29 +3890,1098 @@
   <sheetPr/>
   <dimension ref="A1:L20"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8421052631579" defaultRowHeight="14.1"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1"/>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>40</v>
+      </c>
+      <c r="L6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20" t="s">
+        <v>3</v>
+      </c>
+      <c r="I20" t="s">
+        <v>3</v>
+      </c>
+      <c r="J20" t="s">
+        <v>3</v>
+      </c>
+      <c r="K20" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A3:L20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8421052631579" defaultRowHeight="14.1"/>
+  <sheetData>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>42</v>
+      </c>
+      <c r="L5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="L6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="L13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="L14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="L15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="L16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="L17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="L18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="L19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20" t="s">
+        <v>3</v>
+      </c>
+      <c r="I20" t="s">
+        <v>3</v>
+      </c>
+      <c r="J20" t="s">
+        <v>3</v>
+      </c>
+      <c r="K20" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A3:L20"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8421052631579" defaultRowHeight="14.1"/>
+  <sheetData>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="L7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="L8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="L13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="L14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="L15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="L16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="L17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="L18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="L19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20" t="s">
+        <v>3</v>
+      </c>
+      <c r="I20" t="s">
+        <v>3</v>
+      </c>
+      <c r="J20" t="s">
+        <v>3</v>
+      </c>
+      <c r="K20" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A3:L20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8421052631579" defaultRowHeight="14.1"/>
+  <sheetData>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="L7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="L8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="L13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="L14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="L15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="L16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="L17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="L18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="L19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20" t="s">
+        <v>3</v>
+      </c>
+      <c r="I20" t="s">
+        <v>3</v>
+      </c>
+      <c r="J20" t="s">
+        <v>3</v>
+      </c>
+      <c r="K20" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8421052631579" defaultRowHeight="14.1"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
+        <v>45</v>
+      </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
@@ -2498,6 +5048,9 @@
       <c r="B5" t="s">
         <v>8</v>
       </c>
+      <c r="E5" t="s">
+        <v>46</v>
+      </c>
       <c r="L5" t="s">
         <v>3</v>
       </c>
@@ -2507,7 +5060,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>47</v>
       </c>
       <c r="L6" t="s">
         <v>3</v>
@@ -2518,7 +5074,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L7" t="s">
         <v>3</v>
@@ -2529,12 +5085,11 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8"/>
+        <v>15</v>
+      </c>
       <c r="L8" t="s">
         <v>3</v>
       </c>
@@ -2544,16 +5099,16 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="L9" t="s">
         <v>3</v>
@@ -2564,10 +5119,10 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L10" t="s">
         <v>3</v>
@@ -2578,7 +5133,7 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="L11" t="s">
         <v>3</v>
@@ -2589,7 +5144,7 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="L12" t="s">
         <v>3</v>
@@ -2600,7 +5155,7 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="L13" t="s">
         <v>3</v>
@@ -2611,7 +5166,7 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="L14" t="s">
         <v>3</v>
@@ -2622,7 +5177,7 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="L15" t="s">
         <v>3</v>
@@ -2633,7 +5188,7 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="L16" t="s">
         <v>3</v>
@@ -2644,7 +5199,7 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="L17" t="s">
         <v>3</v>
@@ -2655,7 +5210,7 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="L18" t="s">
         <v>3</v>
@@ -2666,17 +5221,8 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="F19"/>
-      <c r="G19"/>
-      <c r="H19"/>
-      <c r="I19"/>
-      <c r="J19"/>
-      <c r="K19"/>
+        <v>35</v>
+      </c>
       <c r="L19" t="s">
         <v>3</v>
       </c>
@@ -2728,10 +5274,25 @@
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <commentList sheetStid="11">
+    <comment s:ref="J20" rgbClr="36C9D0"/>
+  </commentList>
+  <commentList sheetStid="12">
+    <comment s:ref="J20" rgbClr="36C9D0"/>
+  </commentList>
+  <commentList sheetStid="7">
+    <comment s:ref="J20" rgbClr="5DC6E0"/>
+  </commentList>
   <commentList sheetStid="2">
     <comment s:ref="J20" rgbClr="19C650"/>
   </commentList>
   <commentList sheetStid="3">
+    <comment s:ref="J20" rgbClr="5DC6E0"/>
+  </commentList>
+  <commentList sheetStid="10">
+    <comment s:ref="J20" rgbClr="5DC6E0"/>
+  </commentList>
+  <commentList sheetStid="13">
     <comment s:ref="J20" rgbClr="5DC6E0"/>
   </commentList>
   <commentList sheetStid="6">
@@ -2739,6 +5300,12 @@
   </commentList>
   <commentList sheetStid="5">
     <comment s:ref="J20" rgbClr="5DC6E0"/>
+  </commentList>
+  <commentList sheetStid="8">
+    <comment s:ref="J20" rgbClr="D3C6C0"/>
+  </commentList>
+  <commentList sheetStid="9">
+    <comment s:ref="J20" rgbClr="D3C6C0"/>
   </commentList>
 </comments>
 </file>

--- a/Map.xlsx
+++ b/Map.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18000" windowHeight="8190" activeTab="6"/>
+    <workbookView windowWidth="18000" windowHeight="8190" firstSheet="6" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="场景" sheetId="1" r:id="rId1"/>
-    <sheet name="场景物品" sheetId="11" r:id="rId2"/>
-    <sheet name="场景装备" sheetId="12" r:id="rId3"/>
-    <sheet name="场景条件ID" sheetId="7" r:id="rId4"/>
-    <sheet name="描述" sheetId="2" r:id="rId5"/>
+    <sheet name="描述" sheetId="2" r:id="rId2"/>
+    <sheet name="场景物品" sheetId="11" r:id="rId3"/>
+    <sheet name="场景装备" sheetId="12" r:id="rId4"/>
+    <sheet name="场景条件ID" sheetId="7" r:id="rId5"/>
     <sheet name="房间" sheetId="3" r:id="rId6"/>
     <sheet name="房间物品" sheetId="10" r:id="rId7"/>
     <sheet name="房间装备" sheetId="13" r:id="rId8"/>
@@ -421,7 +421,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="58">
   <si>
     <t>0，0</t>
   </si>
@@ -435,6 +435,57 @@
     <t>虚空边界</t>
   </si>
   <si>
+    <t>赌场后院</t>
+  </si>
+  <si>
+    <t>澳门皇家赌场</t>
+  </si>
+  <si>
+    <t>神秘的大门</t>
+  </si>
+  <si>
+    <t>石板路</t>
+  </si>
+  <si>
+    <t>小广场</t>
+  </si>
+  <si>
+    <t>四合院大门</t>
+  </si>
+  <si>
+    <t>四合院西厢房</t>
+  </si>
+  <si>
+    <t>四合院内</t>
+  </si>
+  <si>
+    <t>四合院东厢房</t>
+  </si>
+  <si>
+    <t>四合院后院</t>
+  </si>
+  <si>
+    <t>竹林</t>
+  </si>
+  <si>
+    <t>凉亭</t>
+  </si>
+  <si>
+    <t>铁质大门</t>
+  </si>
+  <si>
+    <t>欢迎来到我送给你的世界。Bug联系：QQ2432541891</t>
+  </si>
+  <si>
+    <t>青石板街</t>
+  </si>
+  <si>
+    <t>枝繁叶茂。</t>
+  </si>
+  <si>
+    <t>竹子搭起来的凉亭。很有情趣。</t>
+  </si>
+  <si>
     <t>1,3</t>
   </si>
   <si>
@@ -450,123 +501,81 @@
     <t>1,4</t>
   </si>
   <si>
-    <t>赌场后院</t>
-  </si>
-  <si>
     <t>1,5</t>
   </si>
   <si>
-    <t>澳门皇家赌场</t>
-  </si>
-  <si>
     <t>1,6</t>
   </si>
   <si>
-    <t>神秘的大门</t>
-  </si>
-  <si>
     <t>1,7</t>
   </si>
   <si>
+    <t>1,8</t>
+  </si>
+  <si>
+    <t>饭团,饭团,饭团，饭团,饭团，饭团</t>
+  </si>
+  <si>
+    <t>1,9</t>
+  </si>
+  <si>
+    <t>1,10</t>
+  </si>
+  <si>
+    <t>1,11</t>
+  </si>
+  <si>
+    <t>1,12</t>
+  </si>
+  <si>
+    <t>1,13</t>
+  </si>
+  <si>
+    <t>1,14</t>
+  </si>
+  <si>
+    <t>1,15</t>
+  </si>
+  <si>
+    <t>1,16</t>
+  </si>
+  <si>
+    <t>1,17</t>
+  </si>
+  <si>
+    <t>1,18</t>
+  </si>
+  <si>
+    <t>场景进入的条件ID</t>
+  </si>
+  <si>
+    <t>西</t>
+  </si>
+  <si>
+    <t>东</t>
+  </si>
+  <si>
+    <t>南</t>
+  </si>
+  <si>
+    <t>厕所</t>
+  </si>
+  <si>
+    <t>凉亭内</t>
+  </si>
+  <si>
+    <t>描述包含功能介绍</t>
+  </si>
+  <si>
+    <t>豪华的超市。所有东西都很贵。(buy1购买商品)</t>
+  </si>
+  <si>
+    <t>豪华的设施(dubuo)</t>
+  </si>
+  <si>
     <t>北</t>
   </si>
   <si>
-    <t>1,8</t>
-  </si>
-  <si>
-    <t>西</t>
-  </si>
-  <si>
-    <t>中心4,8</t>
-  </si>
-  <si>
-    <t>东</t>
-  </si>
-  <si>
-    <t>1,9</t>
-  </si>
-  <si>
-    <t>南</t>
-  </si>
-  <si>
-    <t>1,10</t>
-  </si>
-  <si>
-    <t>四合院大门</t>
-  </si>
-  <si>
-    <t>1,11</t>
-  </si>
-  <si>
-    <t>四合院西厢房</t>
-  </si>
-  <si>
-    <t>四合院内</t>
-  </si>
-  <si>
-    <t>四合院东厢房</t>
-  </si>
-  <si>
-    <t>1,12</t>
-  </si>
-  <si>
-    <t>四合院后院</t>
-  </si>
-  <si>
-    <t>1,13</t>
-  </si>
-  <si>
-    <t>1,14</t>
-  </si>
-  <si>
-    <t>1,15</t>
-  </si>
-  <si>
-    <t>1,16</t>
-  </si>
-  <si>
-    <t>1,17</t>
-  </si>
-  <si>
-    <t>1,18</t>
-  </si>
-  <si>
-    <t>饭团,饭团,饭团，饭团,饭团，饭团</t>
-  </si>
-  <si>
-    <t>饭团</t>
-  </si>
-  <si>
-    <t>场景进入的条件ID</t>
-  </si>
-  <si>
-    <t>这有家超市</t>
-  </si>
-  <si>
-    <t>有钱就来</t>
-  </si>
-  <si>
-    <t>这里应该是中心的描述</t>
-  </si>
-  <si>
-    <t>“老千”溢价超市</t>
-  </si>
-  <si>
-    <t>赌场内部</t>
-  </si>
-  <si>
-    <t>厕所</t>
-  </si>
-  <si>
-    <t>描述包含功能介绍</t>
-  </si>
-  <si>
-    <t>豪华的超市。所有东西都很贵。(buy1购买商品)</t>
-  </si>
-  <si>
-    <t>豪华的设施(dubuo)</t>
-  </si>
-  <si>
     <t>厕所的描述，输入1可以使用。</t>
   </si>
   <si>
@@ -585,7 +594,7 @@
     <t>蒙面人</t>
   </si>
   <si>
-    <t>npc模板1,npc模板2</t>
+    <t>鱼线龙</t>
   </si>
 </sst>
 </file>
@@ -751,12 +760,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1607,18 +1616,6 @@
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
       <c r="L4" t="s">
         <v>3</v>
       </c>
@@ -1626,14 +1623,11 @@
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -1645,13 +1639,10 @@
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -1663,13 +1654,10 @@
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -1681,13 +1669,10 @@
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -1699,20 +1684,30 @@
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="D9" s="2" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="L9" t="s">
         <v>3</v>
       </c>
@@ -1720,17 +1715,17 @@
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
+      <c r="J10" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="L10" t="s">
         <v>3</v>
       </c>
@@ -1738,17 +1733,17 @@
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
+      <c r="J11" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="L11" t="s">
         <v>3</v>
       </c>
@@ -1757,20 +1752,20 @@
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="G12" s="2"/>
+      <c r="J12" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="L12" t="s">
         <v>3</v>
       </c>
@@ -1778,17 +1773,17 @@
     <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="B13" t="s">
-        <v>28</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
+      <c r="J13" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="L13" t="s">
         <v>3</v>
       </c>
@@ -1797,8 +1792,11 @@
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B14" t="s">
-        <v>30</v>
+      <c r="H14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="L14" t="s">
         <v>3</v>
@@ -1808,8 +1806,17 @@
       <c r="A15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B15" t="s">
-        <v>31</v>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="L15" t="s">
         <v>3</v>
@@ -1819,8 +1826,14 @@
       <c r="A16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B16" t="s">
-        <v>32</v>
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="L16" t="s">
         <v>3</v>
@@ -1830,8 +1843,26 @@
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B17" t="s">
-        <v>33</v>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="L17" t="s">
         <v>3</v>
@@ -1841,8 +1872,11 @@
       <c r="A18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B18" t="s">
-        <v>34</v>
+      <c r="D18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" t="s">
+        <v>14</v>
       </c>
       <c r="L18" t="s">
         <v>3</v>
@@ -1851,9 +1885,6 @@
     <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="B19" t="s">
-        <v>35</v>
       </c>
       <c r="L19" t="s">
         <v>3</v>
@@ -1917,7 +1948,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -1976,16 +2007,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="L4" t="s">
         <v>3</v>
@@ -1996,10 +2027,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="L5" t="s">
         <v>3</v>
@@ -2010,10 +2041,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="L6" t="s">
         <v>3</v>
@@ -2024,7 +2055,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="L7" t="s">
         <v>3</v>
@@ -2035,7 +2066,7 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="L8" t="s">
         <v>3</v>
@@ -2046,10 +2077,10 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L9" t="s">
         <v>3</v>
@@ -2060,7 +2091,7 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L10" t="s">
         <v>3</v>
@@ -2071,7 +2102,7 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="L11" t="s">
         <v>3</v>
@@ -2082,7 +2113,7 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="L12" t="s">
         <v>3</v>
@@ -2093,7 +2124,7 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="L13" t="s">
         <v>3</v>
@@ -2104,7 +2135,7 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="L14" t="s">
         <v>3</v>
@@ -2115,7 +2146,7 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="L15" t="s">
         <v>3</v>
@@ -2126,7 +2157,7 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="L16" t="s">
         <v>3</v>
@@ -2137,7 +2168,7 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="L17" t="s">
         <v>3</v>
@@ -2148,7 +2179,7 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="L18" t="s">
         <v>3</v>
@@ -2159,7 +2190,7 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="L19" t="s">
         <v>3</v>
@@ -2216,7 +2247,7 @@
   <dimension ref="A3:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8421052631579" defaultRowHeight="14.1"/>
@@ -2264,16 +2295,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="L4" t="s">
         <v>3</v>
@@ -2284,7 +2315,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -2300,7 +2331,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -2316,7 +2347,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -2332,7 +2363,7 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -2348,12 +2379,12 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -2366,7 +2397,7 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -2382,7 +2413,7 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -2398,13 +2429,11 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="2" t="s">
-        <v>54</v>
-      </c>
+      <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="L12" t="s">
@@ -2416,7 +2445,7 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -2432,7 +2461,7 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="L14" t="s">
         <v>3</v>
@@ -2443,7 +2472,7 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="L15" t="s">
         <v>3</v>
@@ -2454,7 +2483,7 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="L16" t="s">
         <v>3</v>
@@ -2465,7 +2494,7 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="L17" t="s">
         <v>3</v>
@@ -2476,7 +2505,7 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="L18" t="s">
         <v>3</v>
@@ -2487,7 +2516,7 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="L19" t="s">
         <v>3</v>
@@ -2543,8 +2572,8 @@
   <sheetPr/>
   <dimension ref="A3:L20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8421052631579" defaultRowHeight="14.1"/>
@@ -2592,16 +2621,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="L4" t="s">
         <v>3</v>
@@ -2612,7 +2641,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -2628,7 +2657,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -2644,7 +2673,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -2660,7 +2689,7 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -2676,12 +2705,12 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -2694,7 +2723,7 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -2710,7 +2739,7 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -2726,13 +2755,11 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="2" t="s">
-        <v>54</v>
-      </c>
+      <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="L12" t="s">
@@ -2744,7 +2771,7 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -2760,7 +2787,7 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="L14" t="s">
         <v>3</v>
@@ -2771,7 +2798,7 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="L15" t="s">
         <v>3</v>
@@ -2782,7 +2809,7 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="L16" t="s">
         <v>3</v>
@@ -2793,7 +2820,7 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="L17" t="s">
         <v>3</v>
@@ -2804,7 +2831,7 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="L18" t="s">
         <v>3</v>
@@ -2815,7 +2842,7 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="L19" t="s">
         <v>3</v>
@@ -2872,20 +2899,18 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8421052631579" defaultRowHeight="14.1"/>
-  <cols>
-    <col min="1" max="1" width="8.8421052631579" style="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:3">
+    <row r="2" spans="1:3">
+      <c r="A2" s="1"/>
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -2935,18 +2960,6 @@
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
       <c r="L4" t="s">
         <v>3</v>
       </c>
@@ -2955,12 +2968,11 @@
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="L5" t="s">
@@ -2971,12 +2983,11 @@
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="L6" t="s">
@@ -2987,12 +2998,11 @@
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="L7" t="s">
@@ -3003,12 +3013,11 @@
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="L8" t="s">
@@ -3019,16 +3028,30 @@
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="E9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="L9" t="s">
         <v>3</v>
       </c>
@@ -3037,14 +3060,16 @@
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
+      <c r="J10" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="L10" t="s">
         <v>3</v>
       </c>
@@ -3053,14 +3078,16 @@
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
+      <c r="J11" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="L11" t="s">
         <v>3</v>
       </c>
@@ -3069,14 +3096,20 @@
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
       <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="G12" s="2"/>
+      <c r="J12" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="L12" t="s">
         <v>3</v>
       </c>
@@ -3085,14 +3118,16 @@
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B13" t="s">
-        <v>28</v>
-      </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
+      <c r="J13" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="L13" t="s">
         <v>3</v>
       </c>
@@ -3101,8 +3136,11 @@
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B14" t="s">
-        <v>30</v>
+      <c r="H14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="L14" t="s">
         <v>3</v>
@@ -3112,8 +3150,17 @@
       <c r="A15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B15" t="s">
-        <v>31</v>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="L15" t="s">
         <v>3</v>
@@ -3123,8 +3170,14 @@
       <c r="A16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B16" t="s">
-        <v>32</v>
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" t="s">
+        <v>19</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="L16" t="s">
         <v>3</v>
@@ -3134,8 +3187,26 @@
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B17" t="s">
-        <v>33</v>
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" t="s">
+        <v>19</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="L17" t="s">
         <v>3</v>
@@ -3145,8 +3216,11 @@
       <c r="A18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B18" t="s">
-        <v>34</v>
+      <c r="D18" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" t="s">
+        <v>19</v>
       </c>
       <c r="L18" t="s">
         <v>3</v>
@@ -3155,9 +3229,6 @@
     <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="B19" t="s">
-        <v>35</v>
       </c>
       <c r="L19" t="s">
         <v>3</v>
@@ -3278,16 +3349,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="L4" t="s">
         <v>3</v>
@@ -3298,13 +3369,11 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="L5" t="s">
@@ -3316,13 +3385,11 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="L6" t="s">
@@ -3334,13 +3401,11 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="L7" t="s">
@@ -3352,13 +3417,11 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="L8" t="s">
@@ -3370,18 +3433,14 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>19</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="L9" t="s">
         <v>3</v>
@@ -3392,13 +3451,11 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="L10" t="s">
@@ -3410,13 +3467,11 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="L11" t="s">
@@ -3428,18 +3483,12 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="D12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="L12" t="s">
         <v>3</v>
@@ -3450,13 +3499,11 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="L13" t="s">
@@ -3468,7 +3515,7 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="L14" t="s">
         <v>3</v>
@@ -3479,7 +3526,7 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="L15" t="s">
         <v>3</v>
@@ -3490,7 +3537,7 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="L16" t="s">
         <v>3</v>
@@ -3501,7 +3548,7 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="L17" t="s">
         <v>3</v>
@@ -3512,7 +3559,7 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="L18" t="s">
         <v>3</v>
@@ -3523,7 +3570,7 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="L19" t="s">
         <v>3</v>
@@ -3580,14 +3627,25 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8421052631579" defaultRowHeight="14.1"/>
+  <cols>
+    <col min="1" max="1" width="8.8421052631579" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>38</v>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -3633,16 +3691,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="L4" t="s">
         <v>3</v>
@@ -3653,11 +3711,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
       <c r="L5" t="s">
         <v>3</v>
       </c>
@@ -3667,11 +3727,13 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="2">
-        <v>2</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
       <c r="L6" t="s">
         <v>3</v>
       </c>
@@ -3681,11 +3743,13 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
       <c r="L7" t="s">
         <v>3</v>
       </c>
@@ -3695,11 +3759,13 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
       <c r="L8" t="s">
         <v>3</v>
       </c>
@@ -3709,17 +3775,13 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9" t="s">
-        <v>19</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
       <c r="L9" t="s">
         <v>3</v>
       </c>
@@ -3729,11 +3791,13 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" t="s">
-        <v>21</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
       <c r="L10" t="s">
         <v>3</v>
       </c>
@@ -3743,11 +3807,13 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
       <c r="L11" t="s">
         <v>3</v>
       </c>
@@ -3757,8 +3823,13 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
       <c r="L12" t="s">
         <v>3</v>
       </c>
@@ -3768,8 +3839,13 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
       <c r="L13" t="s">
         <v>3</v>
       </c>
@@ -3779,7 +3855,7 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="L14" t="s">
         <v>3</v>
@@ -3790,7 +3866,7 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="L15" t="s">
         <v>3</v>
@@ -3801,7 +3877,7 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="L16" t="s">
         <v>3</v>
@@ -3812,7 +3888,7 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="L17" t="s">
         <v>3</v>
@@ -3823,7 +3899,7 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="L18" t="s">
         <v>3</v>
@@ -3834,7 +3910,7 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="L19" t="s">
         <v>3</v>
@@ -3891,23 +3967,14 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8421052631579" defaultRowHeight="14.1"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1"/>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
+      <c r="A1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -3952,6 +4019,18 @@
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
       <c r="L4" t="s">
         <v>3</v>
       </c>
@@ -3960,8 +4039,11 @@
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E5" t="s">
-        <v>39</v>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
       </c>
       <c r="L5" t="s">
         <v>3</v>
@@ -3971,8 +4053,11 @@
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E6" t="s">
-        <v>40</v>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2</v>
       </c>
       <c r="L6" t="s">
         <v>3</v>
@@ -3982,6 +4067,12 @@
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
       <c r="L7" t="s">
         <v>3</v>
       </c>
@@ -3990,8 +4081,11 @@
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E8" t="s">
-        <v>15</v>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
       </c>
       <c r="L8" t="s">
         <v>3</v>
@@ -4001,14 +4095,17 @@
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
       <c r="D9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="L9" t="s">
         <v>3</v>
@@ -4018,8 +4115,11 @@
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
       <c r="E10" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="L10" t="s">
         <v>3</v>
@@ -4029,6 +4129,12 @@
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
       <c r="L11" t="s">
         <v>3</v>
       </c>
@@ -4037,6 +4143,9 @@
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
       <c r="L12" t="s">
         <v>3</v>
       </c>
@@ -4045,6 +4154,9 @@
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
       <c r="L13" t="s">
         <v>3</v>
       </c>
@@ -4053,6 +4165,9 @@
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
       <c r="L14" t="s">
         <v>3</v>
       </c>
@@ -4061,6 +4176,9 @@
       <c r="A15" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
       <c r="L15" t="s">
         <v>3</v>
       </c>
@@ -4069,6 +4187,9 @@
       <c r="A16" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
       <c r="L16" t="s">
         <v>3</v>
       </c>
@@ -4077,6 +4198,9 @@
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
       <c r="L17" t="s">
         <v>3</v>
       </c>
@@ -4085,6 +4209,9 @@
       <c r="A18" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
       <c r="L18" t="s">
         <v>3</v>
       </c>
@@ -4092,6 +4219,9 @@
     <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
       </c>
       <c r="L19" t="s">
         <v>3</v>
@@ -4148,7 +4278,7 @@
   <dimension ref="A3:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8421052631579" defaultRowHeight="14.1"/>
@@ -4203,12 +4333,11 @@
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s">
-        <v>42</v>
-      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
       <c r="L5" t="s">
         <v>3</v>
       </c>
@@ -4217,12 +4346,11 @@
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" t="s">
-        <v>43</v>
-      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
       <c r="L6" t="s">
         <v>3</v>
       </c>
@@ -4231,9 +4359,11 @@
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
       <c r="L7" t="s">
         <v>3</v>
       </c>
@@ -4242,9 +4372,11 @@
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
       <c r="L8" t="s">
         <v>3</v>
       </c>
@@ -4253,18 +4385,16 @@
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" t="s">
-        <v>19</v>
-      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
       <c r="L9" t="s">
         <v>3</v>
       </c>
@@ -4273,12 +4403,12 @@
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" t="s">
-        <v>21</v>
-      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="J10" s="2"/>
       <c r="L10" t="s">
         <v>3</v>
       </c>
@@ -4287,9 +4417,12 @@
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="J11" s="2"/>
       <c r="L11" t="s">
         <v>3</v>
       </c>
@@ -4298,9 +4431,12 @@
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="J12" s="2"/>
       <c r="L12" t="s">
         <v>3</v>
       </c>
@@ -4309,9 +4445,12 @@
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B13" t="s">
-        <v>28</v>
-      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="J13" s="2"/>
       <c r="L13" t="s">
         <v>3</v>
       </c>
@@ -4320,9 +4459,7 @@
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B14" t="s">
-        <v>30</v>
-      </c>
+      <c r="J14" s="2"/>
       <c r="L14" t="s">
         <v>3</v>
       </c>
@@ -4331,9 +4468,7 @@
       <c r="A15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B15" t="s">
-        <v>31</v>
-      </c>
+      <c r="J15" s="2"/>
       <c r="L15" t="s">
         <v>3</v>
       </c>
@@ -4342,9 +4477,7 @@
       <c r="A16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B16" t="s">
-        <v>32</v>
-      </c>
+      <c r="J16" s="2"/>
       <c r="L16" t="s">
         <v>3</v>
       </c>
@@ -4353,9 +4486,10 @@
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B17" t="s">
-        <v>33</v>
-      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="J17" s="2"/>
       <c r="L17" t="s">
         <v>3</v>
       </c>
@@ -4364,9 +4498,6 @@
       <c r="A18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B18" t="s">
-        <v>34</v>
-      </c>
       <c r="L18" t="s">
         <v>3</v>
       </c>
@@ -4374,9 +4505,6 @@
     <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="B19" t="s">
-        <v>35</v>
       </c>
       <c r="L19" t="s">
         <v>3</v>
@@ -4432,7 +4560,7 @@
   <sheetPr/>
   <dimension ref="A3:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -4489,7 +4617,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="L5" t="s">
         <v>3</v>
@@ -4500,7 +4628,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="L6" t="s">
         <v>3</v>
@@ -4511,7 +4639,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -4524,7 +4652,7 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E8" s="2"/>
       <c r="L8" t="s">
@@ -4536,7 +4664,7 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="L9" t="s">
         <v>3</v>
@@ -4547,7 +4675,7 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L10" t="s">
         <v>3</v>
@@ -4558,7 +4686,7 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="L11" t="s">
         <v>3</v>
@@ -4569,7 +4697,7 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="L12" t="s">
         <v>3</v>
@@ -4580,7 +4708,7 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="L13" t="s">
         <v>3</v>
@@ -4591,7 +4719,7 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="L14" t="s">
         <v>3</v>
@@ -4602,7 +4730,7 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="L15" t="s">
         <v>3</v>
@@ -4613,7 +4741,7 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="L16" t="s">
         <v>3</v>
@@ -4624,7 +4752,7 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="L17" t="s">
         <v>3</v>
@@ -4635,7 +4763,7 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="L18" t="s">
         <v>3</v>
@@ -4646,7 +4774,7 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="L19" t="s">
         <v>3</v>
@@ -4759,7 +4887,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="L5" t="s">
         <v>3</v>
@@ -4770,7 +4898,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="L6" t="s">
         <v>3</v>
@@ -4781,7 +4909,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -4794,7 +4922,7 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E8" s="2"/>
       <c r="L8" t="s">
@@ -4806,7 +4934,7 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="L9" t="s">
         <v>3</v>
@@ -4817,7 +4945,7 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L10" t="s">
         <v>3</v>
@@ -4828,7 +4956,7 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="L11" t="s">
         <v>3</v>
@@ -4839,7 +4967,7 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="L12" t="s">
         <v>3</v>
@@ -4850,7 +4978,7 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="L13" t="s">
         <v>3</v>
@@ -4861,7 +4989,7 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="L14" t="s">
         <v>3</v>
@@ -4872,7 +5000,7 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="L15" t="s">
         <v>3</v>
@@ -4883,7 +5011,7 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="L16" t="s">
         <v>3</v>
@@ -4894,7 +5022,7 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="L17" t="s">
         <v>3</v>
@@ -4905,7 +5033,7 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="L18" t="s">
         <v>3</v>
@@ -4916,7 +5044,7 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="L19" t="s">
         <v>3</v>
@@ -4980,7 +5108,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -5026,16 +5154,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="L4" t="s">
         <v>3</v>
@@ -5046,10 +5174,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L5" t="s">
         <v>3</v>
@@ -5060,10 +5188,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L6" t="s">
         <v>3</v>
@@ -5074,7 +5202,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="L7" t="s">
         <v>3</v>
@@ -5085,10 +5213,10 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="L8" t="s">
         <v>3</v>
@@ -5099,16 +5227,16 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="E9" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F9" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="L9" t="s">
         <v>3</v>
@@ -5119,10 +5247,10 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="E10" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="L10" t="s">
         <v>3</v>
@@ -5133,7 +5261,7 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="L11" t="s">
         <v>3</v>
@@ -5144,7 +5272,7 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="L12" t="s">
         <v>3</v>
@@ -5155,7 +5283,7 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="L13" t="s">
         <v>3</v>
@@ -5166,7 +5294,7 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="L14" t="s">
         <v>3</v>
@@ -5177,7 +5305,7 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="L15" t="s">
         <v>3</v>
@@ -5188,7 +5316,7 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="L16" t="s">
         <v>3</v>
@@ -5199,7 +5327,7 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="L17" t="s">
         <v>3</v>
@@ -5210,7 +5338,7 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="L18" t="s">
         <v>3</v>
@@ -5221,7 +5349,7 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="L19" t="s">
         <v>3</v>
@@ -5274,6 +5402,9 @@
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <commentList sheetStid="2">
+    <comment s:ref="J20" rgbClr="2FC5F4"/>
+  </commentList>
   <commentList sheetStid="11">
     <comment s:ref="J20" rgbClr="36C9D0"/>
   </commentList>
@@ -5282,9 +5413,6 @@
   </commentList>
   <commentList sheetStid="7">
     <comment s:ref="J20" rgbClr="5DC6E0"/>
-  </commentList>
-  <commentList sheetStid="2">
-    <comment s:ref="J20" rgbClr="19C650"/>
   </commentList>
   <commentList sheetStid="3">
     <comment s:ref="J20" rgbClr="5DC6E0"/>
